--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,78 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>41500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,76 @@
         <v>41500</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>4400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>4400</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>16500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>16500</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>66700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,43 @@
         <v>66700</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43790,6 +43790,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73575,6 +73575,43 @@
         <v>1300000</v>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2068" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2068"/>
+  <dimension ref="A1:I2069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73612,6 +73612,43 @@
         </is>
       </c>
     </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2069" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2069"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73649,6 +73649,43 @@
         </is>
       </c>
     </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2070" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2070"/>
+  <dimension ref="A1:I2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73686,6 +73686,41 @@
         </is>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>2700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2071"/>
+  <dimension ref="A1:I2072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73721,6 +73721,43 @@
         <v>2700</v>
       </c>
     </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2072" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2072"/>
+  <dimension ref="A1:I2073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73758,6 +73758,43 @@
         </is>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2073" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2073"/>
+  <dimension ref="A1:I2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73795,6 +73795,43 @@
         </is>
       </c>
     </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2074" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2074"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73832,6 +73832,43 @@
         </is>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2075" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2075"/>
+  <dimension ref="A1:I2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73869,6 +73869,43 @@
         </is>
       </c>
     </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2076" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2076"/>
+  <dimension ref="A1:I2077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73906,6 +73906,43 @@
         </is>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2077" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2077"/>
+  <dimension ref="A1:I2078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73943,6 +73943,43 @@
         </is>
       </c>
     </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2078" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73980,6 +73980,41 @@
         </is>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>186700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74015,6 +74015,41 @@
         <v>186700</v>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2080" t="n">
+        <v>234900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74050,6 +74050,41 @@
         <v>234900</v>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>100100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7943.xlsx
+++ b/data/7943.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2081"/>
+  <dimension ref="A1:I2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74085,6 +74085,41 @@
         <v>100100</v>
       </c>
     </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>SNC</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>299400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
